--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T03:29:58+00:00</t>
+    <t>2024-01-29T15:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T15:29:51+00:00</t>
+    <t>2024-01-30T22:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:14:57+00:00</t>
+    <t>2024-01-30T22:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T22:36:39+00:00</t>
+    <t>2024-02-05T17:54:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T17:54:19+00:00</t>
+    <t>2024-02-22T21:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T21:56:41+00:00</t>
+    <t>2024-02-22T22:07:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T22:07:28+00:00</t>
+    <t>2024-03-08T19:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-08T19:30:19+00:00</t>
+    <t>2024-03-25T22:09:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:09:10+00:00</t>
+    <t>2024-04-16T20:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -421,112 +424,114 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -544,156 +549,156 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T20:55:14+00:00</t>
+    <t>2024-04-16T21:07:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:07:01+00:00</t>
+    <t>2024-04-23T21:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T21:08:53+00:00</t>
+    <t>2024-04-26T16:50:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:50:56+00:00</t>
+    <t>2024-04-28T02:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T02:00:16+00:00</t>
+    <t>2024-05-03T17:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T17:46:35+00:00</t>
+    <t>2024-05-03T18:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T18:19:03+00:00</t>
+    <t>2024-05-03T21:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:10:00+00:00</t>
+    <t>2024-05-03T21:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T21:38:12+00:00</t>
+    <t>2024-05-14T21:02:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
+++ b/CodeSystem-bc-client-registry-patient-change-notification-events.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T21:02:37+00:00</t>
+    <t>2024-06-07T23:38:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
